--- a/Code/Results/Cases/Case_7_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_58/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.42556728881533</v>
+        <v>5.4255672888155</v>
       </c>
       <c r="C2">
-        <v>1.657490994985494</v>
+        <v>1.657490994985551</v>
       </c>
       <c r="D2">
-        <v>0.05082216262537997</v>
+        <v>0.05082216262535866</v>
       </c>
       <c r="E2">
-        <v>1.500674858302389</v>
+        <v>1.500674858302361</v>
       </c>
       <c r="F2">
         <v>2.929623819931095</v>
       </c>
       <c r="G2">
-        <v>0.0007428586351359368</v>
+        <v>0.0007428586350782992</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7864845236145612</v>
+        <v>0.7864845236145328</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>4.643354368701296</v>
       </c>
       <c r="C3">
-        <v>1.41633121459904</v>
+        <v>1.416331214599097</v>
       </c>
       <c r="D3">
-        <v>0.04622986808635687</v>
+        <v>0.04622986808623608</v>
       </c>
       <c r="E3">
-        <v>1.271738881113848</v>
+        <v>1.271738881113876</v>
       </c>
       <c r="F3">
-        <v>2.549154502227935</v>
+        <v>2.549154502227964</v>
       </c>
       <c r="G3">
-        <v>0.0007550605196018356</v>
+        <v>0.0007550605194857617</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.17596231016455</v>
+        <v>4.175962310164721</v>
       </c>
       <c r="C4">
         <v>1.272310542375919</v>
       </c>
       <c r="D4">
-        <v>0.04372265169141087</v>
+        <v>0.04372265169139666</v>
       </c>
       <c r="E4">
-        <v>1.136682340159595</v>
+        <v>1.136682340159638</v>
       </c>
       <c r="F4">
-        <v>2.325642226844508</v>
+        <v>2.325642226844522</v>
       </c>
       <c r="G4">
-        <v>0.0007626502162208129</v>
+        <v>0.0007626502162749738</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8226923386850729</v>
+        <v>0.8226923386850515</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.988191333683972</v>
+        <v>3.988191333683915</v>
       </c>
       <c r="C5">
         <v>1.214459366301014</v>
       </c>
       <c r="D5">
-        <v>0.04276811338215936</v>
+        <v>0.0427681133824791</v>
       </c>
       <c r="E5">
-        <v>1.082780939313224</v>
+        <v>1.082780939313196</v>
       </c>
       <c r="F5">
         <v>2.236726706892398</v>
       </c>
       <c r="G5">
-        <v>0.0007657731276338591</v>
+        <v>0.0007657731276313751</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8295063408871854</v>
+        <v>0.8295063408872281</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.957160301038584</v>
+        <v>3.957160301038869</v>
       </c>
       <c r="C6">
-        <v>1.204899052878375</v>
+        <v>1.204899052878147</v>
       </c>
       <c r="D6">
-        <v>0.04261336900144386</v>
+        <v>0.04261336900133017</v>
       </c>
       <c r="E6">
-        <v>1.073892618729886</v>
+        <v>1.073892618729843</v>
       </c>
       <c r="F6">
-        <v>2.222083345723277</v>
+        <v>2.222083345723263</v>
       </c>
       <c r="G6">
-        <v>0.0007662936459557106</v>
+        <v>0.0007662936459570534</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8306703964296958</v>
+        <v>0.8306703964296744</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.173419721123253</v>
+        <v>4.17341972112331</v>
       </c>
       <c r="C7">
-        <v>1.271527166919441</v>
+        <v>1.271527166919157</v>
       </c>
       <c r="D7">
-        <v>0.04370952029492514</v>
+        <v>0.04370952029491804</v>
       </c>
       <c r="E7">
-        <v>1.135951113556885</v>
+        <v>1.135951113556857</v>
       </c>
       <c r="F7">
         <v>2.32443475940984</v>
       </c>
       <c r="G7">
-        <v>0.0007626922046230742</v>
+        <v>0.0007626922045646332</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8227820138082578</v>
+        <v>0.8227820138082933</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.152831330387016</v>
+        <v>5.152831330387073</v>
       </c>
       <c r="C8">
-        <v>1.573380836188335</v>
+        <v>1.57338083618879</v>
       </c>
       <c r="D8">
-        <v>0.04916644379369473</v>
+        <v>0.04916644379390789</v>
       </c>
       <c r="E8">
-        <v>1.42042994350102</v>
+        <v>1.420429943501006</v>
       </c>
       <c r="F8">
         <v>2.796101775785814</v>
       </c>
       <c r="G8">
-        <v>0.0007470491204662333</v>
+        <v>0.0007470491205258695</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7931222802947957</v>
+        <v>0.7931222802947246</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>7.205285102802918</v>
       </c>
       <c r="C9">
-        <v>2.20729691199233</v>
+        <v>2.207296911992273</v>
       </c>
       <c r="D9">
-        <v>0.06297667929942463</v>
+        <v>0.06297667929959516</v>
       </c>
       <c r="E9">
-        <v>2.035967584893314</v>
+        <v>2.035967584893328</v>
       </c>
       <c r="F9">
-        <v>3.821242214016792</v>
+        <v>3.821242214016763</v>
       </c>
       <c r="G9">
-        <v>0.000716851151854869</v>
+        <v>0.0007168511519292466</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.845070618065733</v>
+        <v>8.845070618065961</v>
       </c>
       <c r="C10">
-        <v>2.715872661532558</v>
+        <v>2.715872661532785</v>
       </c>
       <c r="D10">
-        <v>0.07614627296960919</v>
+        <v>0.07614627296960208</v>
       </c>
       <c r="E10">
-        <v>2.54859110580405</v>
+        <v>2.548591105804121</v>
       </c>
       <c r="F10">
         <v>4.670462671245957</v>
       </c>
       <c r="G10">
-        <v>0.0006944369680268894</v>
+        <v>0.0006944369681781018</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7528293776041579</v>
+        <v>0.7528293776041437</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.635327468372907</v>
+        <v>9.635327468373021</v>
       </c>
       <c r="C11">
-        <v>2.961833196994064</v>
+        <v>2.961833196994235</v>
       </c>
       <c r="D11">
-        <v>0.08315016197146008</v>
+        <v>0.08315016197219194</v>
       </c>
       <c r="E11">
-        <v>2.802993401041775</v>
+        <v>2.802993401041761</v>
       </c>
       <c r="F11">
-        <v>5.088280900816784</v>
+        <v>5.088280900816756</v>
       </c>
       <c r="G11">
-        <v>0.0006840318688486417</v>
+        <v>0.0006840318689269082</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7565430283087267</v>
+        <v>0.7565430283087125</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.942721393125339</v>
+        <v>9.942721393125453</v>
       </c>
       <c r="C12">
-        <v>3.057677624728342</v>
+        <v>3.057677624728683</v>
       </c>
       <c r="D12">
-        <v>0.08598976115066392</v>
+        <v>0.08598976115047208</v>
       </c>
       <c r="E12">
-        <v>2.903338625034067</v>
+        <v>2.903338625034053</v>
       </c>
       <c r="F12">
-        <v>5.252233081931422</v>
+        <v>5.252233081931365</v>
       </c>
       <c r="G12">
-        <v>0.0006800435770298344</v>
+        <v>0.0006800435769535976</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7590458739257429</v>
+        <v>0.7590458739257286</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.876122751648495</v>
+        <v>9.876122751648381</v>
       </c>
       <c r="C13">
-        <v>3.036903934506995</v>
+        <v>3.036903934506654</v>
       </c>
       <c r="D13">
-        <v>0.08536905832978903</v>
+        <v>0.08536905832958297</v>
       </c>
       <c r="E13">
         <v>2.881530403350837</v>
       </c>
       <c r="F13">
-        <v>5.216645060778347</v>
+        <v>5.216645060778319</v>
       </c>
       <c r="G13">
-        <v>0.0006809050137577111</v>
+        <v>0.0006809050137067865</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7584541271926639</v>
+        <v>0.7584541271926497</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.660441818224058</v>
+        <v>9.660441818224172</v>
       </c>
       <c r="C14">
-        <v>2.969660065185963</v>
+        <v>2.969660065185394</v>
       </c>
       <c r="D14">
-        <v>0.0833797352258685</v>
+        <v>0.0833797352258614</v>
       </c>
       <c r="E14">
-        <v>2.81116187564318</v>
+        <v>2.811161875643194</v>
       </c>
       <c r="F14">
-        <v>5.101646289517589</v>
+        <v>5.101646289517674</v>
       </c>
       <c r="G14">
-        <v>0.0006837048367658346</v>
+        <v>0.0006837048367093849</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7567255640578594</v>
+        <v>0.7567255640579162</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.529452400162995</v>
+        <v>9.529452400163109</v>
       </c>
       <c r="C15">
-        <v>2.928844443098171</v>
+        <v>2.928844443097944</v>
       </c>
       <c r="D15">
-        <v>0.08218708367445515</v>
+        <v>0.082187083674512</v>
       </c>
       <c r="E15">
-        <v>2.768615060479164</v>
+        <v>2.76861506047922</v>
       </c>
       <c r="F15">
-        <v>5.031994523931161</v>
+        <v>5.031994523931132</v>
       </c>
       <c r="G15">
-        <v>0.0006854129160742401</v>
+        <v>0.0006854129161260047</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7558167176100596</v>
+        <v>0.7558167176101023</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>8.794457293623168</v>
       </c>
       <c r="C16">
-        <v>2.70014025592593</v>
+        <v>2.700140255925419</v>
       </c>
       <c r="D16">
-        <v>0.07571221592354505</v>
+        <v>0.0757122159237511</v>
       </c>
       <c r="E16">
-        <v>2.532467176579075</v>
+        <v>2.532467176579132</v>
       </c>
       <c r="F16">
-        <v>4.643886553724286</v>
+        <v>4.643886553724315</v>
       </c>
       <c r="G16">
-        <v>0.0006951113348238684</v>
+        <v>0.0006951113347688013</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.356022400313066</v>
+        <v>8.356022400313179</v>
       </c>
       <c r="C17">
-        <v>2.563957169613559</v>
+        <v>2.563957169613616</v>
       </c>
       <c r="D17">
-        <v>0.07202542800547462</v>
+        <v>0.07202542800560252</v>
       </c>
       <c r="E17">
-        <v>2.393621210379507</v>
+        <v>2.393621210379479</v>
       </c>
       <c r="F17">
-        <v>4.414620018045838</v>
+        <v>4.414620018045866</v>
       </c>
       <c r="G17">
-        <v>0.0007009962013765882</v>
+        <v>0.000700996201373643</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7525477316189608</v>
+        <v>0.7525477316190035</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.107887273911672</v>
+        <v>8.107887273911615</v>
       </c>
       <c r="C18">
         <v>2.486958669987928</v>
       </c>
       <c r="D18">
-        <v>0.06999712707502681</v>
+        <v>0.06999712707515471</v>
       </c>
       <c r="E18">
-        <v>2.315684977685507</v>
+        <v>2.315684977685592</v>
       </c>
       <c r="F18">
-        <v>4.285629043112721</v>
+        <v>4.285629043112692</v>
       </c>
       <c r="G18">
-        <v>0.0007043627008116036</v>
+        <v>0.0007043627007559605</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.024520789632447</v>
+        <v>8.024520789632618</v>
       </c>
       <c r="C19">
-        <v>2.461101078302192</v>
+        <v>2.46110107830242</v>
       </c>
       <c r="D19">
         <v>0.06932514880028862</v>
       </c>
       <c r="E19">
-        <v>2.289603132477879</v>
+        <v>2.289603132477851</v>
       </c>
       <c r="F19">
-        <v>4.242417599886011</v>
+        <v>4.242417599886039</v>
       </c>
       <c r="G19">
-        <v>0.0007054998639349612</v>
+        <v>0.0007054998639371195</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7532610333759919</v>
+        <v>0.7532610333760061</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.402265041588578</v>
+        <v>8.402265041588464</v>
       </c>
       <c r="C20">
-        <v>2.578312564996168</v>
+        <v>2.578312564996224</v>
       </c>
       <c r="D20">
-        <v>0.07240808399715348</v>
+        <v>0.07240808399684795</v>
       </c>
       <c r="E20">
         <v>2.408196456311927</v>
       </c>
       <c r="F20">
-        <v>4.438720399870192</v>
+        <v>4.438720399870306</v>
       </c>
       <c r="G20">
-        <v>0.0007003717580693625</v>
+        <v>0.000700371758192806</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7525068261532226</v>
+        <v>0.75250682615318</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.723554924146129</v>
+        <v>9.723554924146242</v>
       </c>
       <c r="C21">
         <v>2.989332102140054</v>
       </c>
       <c r="D21">
-        <v>0.08395856287260983</v>
+        <v>0.08395856287238246</v>
       </c>
       <c r="E21">
         <v>2.831712771079808</v>
       </c>
       <c r="F21">
-        <v>5.135257270091927</v>
+        <v>5.135257270091955</v>
       </c>
       <c r="G21">
-        <v>0.0006828839377161772</v>
+        <v>0.0006828839377143962</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7572015786312392</v>
+        <v>0.7572015786313102</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.63578271843812</v>
+        <v>10.63578271843801</v>
       </c>
       <c r="C22">
-        <v>3.274147945324955</v>
+        <v>3.274147945324557</v>
       </c>
       <c r="D22">
-        <v>0.09262991615147342</v>
+        <v>0.09262991615163685</v>
       </c>
       <c r="E22">
-        <v>3.132579335034947</v>
+        <v>3.13257933503499</v>
       </c>
       <c r="F22">
-        <v>5.624745307471215</v>
+        <v>5.624745307471187</v>
       </c>
       <c r="G22">
-        <v>0.0006711614423949102</v>
+        <v>0.0006711614423943093</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7668059676701944</v>
+        <v>0.7668059676701375</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>10.14372403759216</v>
       </c>
       <c r="C23">
-        <v>3.120403996103391</v>
+        <v>3.120403996103335</v>
       </c>
       <c r="D23">
-        <v>0.08788155079363946</v>
+        <v>0.08788155079380289</v>
       </c>
       <c r="E23">
-        <v>2.969389340965051</v>
+        <v>2.969389340965037</v>
       </c>
       <c r="F23">
         <v>5.359864553662931</v>
       </c>
       <c r="G23">
-        <v>0.0006774523018973198</v>
+        <v>0.0006774523018979739</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.381346638110585</v>
+        <v>8.381346638110699</v>
       </c>
       <c r="C24">
-        <v>2.571818500198845</v>
+        <v>2.571818500199072</v>
       </c>
       <c r="D24">
-        <v>0.07223480385324166</v>
+        <v>0.07223480385280112</v>
       </c>
       <c r="E24">
         <v>2.401601174099241</v>
       </c>
       <c r="F24">
-        <v>4.427815927461666</v>
+        <v>4.427815927461694</v>
       </c>
       <c r="G24">
-        <v>0.0007006541199418933</v>
+        <v>0.0007006541199592535</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7525235666082608</v>
+        <v>0.7525235666083319</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.631268494383676</v>
+        <v>6.631268494383733</v>
       </c>
       <c r="C25">
         <v>2.029757027998585</v>
       </c>
       <c r="D25">
-        <v>0.05880737944626446</v>
+        <v>0.05880737944612235</v>
       </c>
       <c r="E25">
         <v>1.86104022343963</v>
       </c>
       <c r="F25">
-        <v>3.530022729715682</v>
+        <v>3.530022729715739</v>
       </c>
       <c r="G25">
-        <v>0.000725016210753604</v>
+        <v>0.0007250162108062833</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.4255672888155</v>
+        <v>3.05040540522981</v>
       </c>
       <c r="C2">
-        <v>1.657490994985551</v>
+        <v>1.030053813861429</v>
       </c>
       <c r="D2">
-        <v>0.05082216262535866</v>
+        <v>0.01239424750772677</v>
       </c>
       <c r="E2">
-        <v>1.500674858302361</v>
+        <v>1.422719343415793</v>
       </c>
       <c r="F2">
-        <v>2.929623819931095</v>
+        <v>0.976581697159304</v>
       </c>
       <c r="G2">
-        <v>0.0007428586350782992</v>
+        <v>0.923658004750493</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01909796731565594</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5365291007325936</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3468885243781372</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7864845236145328</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.5275970661237608</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.643354368701296</v>
+        <v>2.649415052979975</v>
       </c>
       <c r="C3">
-        <v>1.416331214599097</v>
+        <v>0.8957526736996897</v>
       </c>
       <c r="D3">
-        <v>0.04622986808623608</v>
+        <v>0.0118531945023026</v>
       </c>
       <c r="E3">
-        <v>1.271738881113876</v>
+        <v>1.237421809507055</v>
       </c>
       <c r="F3">
-        <v>2.549154502227964</v>
+        <v>0.8689183220952827</v>
       </c>
       <c r="G3">
-        <v>0.0007550605194857617</v>
+        <v>0.8172811278174237</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01405746885500492</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4921979361874946</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.323887607428631</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8073639906450012</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.5529873291272516</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.175962310164721</v>
+        <v>2.403986786412077</v>
       </c>
       <c r="C4">
-        <v>1.272310542375919</v>
+        <v>0.8136017506819258</v>
       </c>
       <c r="D4">
-        <v>0.04372265169139666</v>
+        <v>0.01150636539152217</v>
       </c>
       <c r="E4">
-        <v>1.136682340159638</v>
+        <v>1.124313782273461</v>
       </c>
       <c r="F4">
-        <v>2.325642226844522</v>
+        <v>0.8043260687335305</v>
       </c>
       <c r="G4">
-        <v>0.0007626502162749738</v>
+        <v>0.7534759028979607</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01126659242271716</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.465828557645267</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3105671279361601</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8226923386850515</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.5693451859623124</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.988191333683915</v>
+        <v>2.304119881069937</v>
       </c>
       <c r="C5">
-        <v>1.214459366301014</v>
+        <v>0.7801835583788943</v>
       </c>
       <c r="D5">
-        <v>0.0427681133824791</v>
+        <v>0.01136147351203931</v>
       </c>
       <c r="E5">
-        <v>1.082780939313196</v>
+        <v>1.078353853252395</v>
       </c>
       <c r="F5">
-        <v>2.236726706892398</v>
+        <v>0.7783468909227906</v>
       </c>
       <c r="G5">
-        <v>0.0007657731276313751</v>
+        <v>0.7278147831013086</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01019860548087385</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4552780470735627</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3053243151848832</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8295063408872281</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.5761965158557274</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.957160301038869</v>
+        <v>2.287544560682193</v>
       </c>
       <c r="C6">
-        <v>1.204899052878147</v>
+        <v>0.7746375205582012</v>
       </c>
       <c r="D6">
-        <v>0.04261336900133017</v>
+        <v>0.01133720310646069</v>
       </c>
       <c r="E6">
-        <v>1.073892618729843</v>
+        <v>1.070729265281642</v>
       </c>
       <c r="F6">
-        <v>2.222083345723263</v>
+        <v>0.7740527006317421</v>
       </c>
       <c r="G6">
-        <v>0.0007662936459570534</v>
+        <v>0.7235731910998169</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01002525246587106</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4535374126635361</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3044644879324849</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8306703964296744</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.577345152006199</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.17341972112331</v>
+        <v>2.402639413693066</v>
       </c>
       <c r="C7">
-        <v>1.271527166919157</v>
+        <v>0.8131508467984929</v>
       </c>
       <c r="D7">
-        <v>0.04370952029491804</v>
+        <v>0.01150442556713216</v>
       </c>
       <c r="E7">
-        <v>1.135951113556857</v>
+        <v>1.123693458644254</v>
       </c>
       <c r="F7">
-        <v>2.32443475940984</v>
+        <v>0.8039743653657041</v>
       </c>
       <c r="G7">
-        <v>0.0007626922045646332</v>
+        <v>0.7531285022187291</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01125191765653041</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4656855030191167</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3104956917747401</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8227820138082933</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.5694368447454004</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.152831330387073</v>
+        <v>2.911950874471472</v>
       </c>
       <c r="C8">
-        <v>1.57338083618879</v>
+        <v>0.9836703934944353</v>
       </c>
       <c r="D8">
-        <v>0.04916644379390789</v>
+        <v>0.01221079823590365</v>
       </c>
       <c r="E8">
-        <v>1.420429943501006</v>
+        <v>1.358669021067584</v>
       </c>
       <c r="F8">
-        <v>2.796101775785814</v>
+        <v>0.9391216948220773</v>
       </c>
       <c r="G8">
-        <v>0.0007470491205258695</v>
+        <v>0.8866409804597737</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01729249493837104</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5210557427734273</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3387811867054396</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7931222802947246</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.5361873633271053</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.205285102802918</v>
+        <v>3.919356632936399</v>
       </c>
       <c r="C9">
-        <v>2.207296911992273</v>
+        <v>1.321467378599777</v>
       </c>
       <c r="D9">
-        <v>0.06297667929959516</v>
+        <v>0.01347481349515434</v>
       </c>
       <c r="E9">
-        <v>2.035967584893328</v>
+        <v>1.826429271165281</v>
       </c>
       <c r="F9">
-        <v>3.821242214016763</v>
+        <v>1.217994035582777</v>
       </c>
       <c r="G9">
-        <v>0.0007168511519292466</v>
+        <v>1.162378399140977</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.03189206752119578</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6372825510621851</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4014026680240903</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7582741224654654</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.4774556212741494</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.845070618065961</v>
+        <v>4.644602384236748</v>
       </c>
       <c r="C10">
-        <v>2.715872661532785</v>
+        <v>1.559267862485854</v>
       </c>
       <c r="D10">
-        <v>0.07614627296960208</v>
+        <v>0.01488300133429377</v>
       </c>
       <c r="E10">
-        <v>2.548591105804121</v>
+        <v>2.071055963190261</v>
       </c>
       <c r="F10">
-        <v>4.670462671245957</v>
+        <v>1.415288456104776</v>
       </c>
       <c r="G10">
-        <v>0.0006944369681781018</v>
+        <v>1.354850355370161</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.04371189613824633</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7182471020760204</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4451174109960192</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7528293776041437</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.4430787942068264</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.635327468373021</v>
+        <v>4.768455621321152</v>
       </c>
       <c r="C11">
-        <v>2.961833196994235</v>
+        <v>1.548372844705113</v>
       </c>
       <c r="D11">
-        <v>0.08315016197219194</v>
+        <v>0.02124191297099287</v>
       </c>
       <c r="E11">
-        <v>2.802993401041761</v>
+        <v>1.365007090340157</v>
       </c>
       <c r="F11">
-        <v>5.088280900816756</v>
+        <v>1.34625123217981</v>
       </c>
       <c r="G11">
-        <v>0.0006840318689269082</v>
+        <v>1.261665177481802</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.05831549648369005</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.667125973554505</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3998816537920931</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7565430283087125</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.4708715854895544</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.942721393125453</v>
+        <v>4.71838516487179</v>
       </c>
       <c r="C12">
-        <v>3.057677624728683</v>
+        <v>1.48989899775404</v>
       </c>
       <c r="D12">
-        <v>0.08598976115047208</v>
+        <v>0.02748180589959048</v>
       </c>
       <c r="E12">
-        <v>2.903338625034053</v>
+        <v>0.8524075632624175</v>
       </c>
       <c r="F12">
-        <v>5.252233081931365</v>
+        <v>1.247963394897283</v>
       </c>
       <c r="G12">
-        <v>0.0006800435769535976</v>
+        <v>1.146069058211907</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09300357574948492</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6081798971128478</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3541903874153505</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7590458739257286</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.5080155233490231</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.876122751648381</v>
+        <v>4.532531653417038</v>
       </c>
       <c r="C13">
-        <v>3.036903934506654</v>
+        <v>1.392231526772321</v>
       </c>
       <c r="D13">
-        <v>0.08536905832958297</v>
+        <v>0.03387706571756866</v>
       </c>
       <c r="E13">
-        <v>2.881530403350837</v>
+        <v>0.4600575227596195</v>
       </c>
       <c r="F13">
-        <v>5.216645060778319</v>
+        <v>1.122065005488665</v>
       </c>
       <c r="G13">
-        <v>0.0006809050137067865</v>
+        <v>1.007306319675919</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1444534996743414</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5400872485300567</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3056092010472682</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7584541271926497</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.5530887076574871</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.660441818224172</v>
+        <v>4.342564020703662</v>
       </c>
       <c r="C14">
-        <v>2.969660065185394</v>
+        <v>1.307168367469899</v>
       </c>
       <c r="D14">
-        <v>0.0833797352258614</v>
+        <v>0.03849629344447436</v>
       </c>
       <c r="E14">
-        <v>2.811161875643194</v>
+        <v>0.2590150122778141</v>
       </c>
       <c r="F14">
-        <v>5.101646289517674</v>
+        <v>1.022878700890018</v>
       </c>
       <c r="G14">
-        <v>0.0006837048367093849</v>
+        <v>0.9015011164282782</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1908397438304377</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4890748213020686</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2709636190777189</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7567255640579162</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.5884311989758402</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.529452400163109</v>
+        <v>4.267921100827607</v>
       </c>
       <c r="C15">
-        <v>2.928844443097944</v>
+        <v>1.278194407633919</v>
       </c>
       <c r="D15">
-        <v>0.082187083674512</v>
+        <v>0.03948141069705002</v>
       </c>
       <c r="E15">
-        <v>2.76861506047922</v>
+        <v>0.2188666975978144</v>
       </c>
       <c r="F15">
-        <v>5.031994523931132</v>
+        <v>0.992852791295519</v>
       </c>
       <c r="G15">
-        <v>0.0006854129161260047</v>
+        <v>0.8705736886685429</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2023385564097282</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4746476837509732</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2617580025720869</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7558167176101023</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.5976786042912323</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.794457293623168</v>
+        <v>3.99918529924679</v>
       </c>
       <c r="C16">
-        <v>2.700140255925419</v>
+        <v>1.199269836473661</v>
       </c>
       <c r="D16">
-        <v>0.0757122159237511</v>
+        <v>0.03730071181463046</v>
       </c>
       <c r="E16">
-        <v>2.532467176579132</v>
+        <v>0.2112969762615506</v>
       </c>
       <c r="F16">
-        <v>4.643886553724315</v>
+        <v>0.9364433662749008</v>
       </c>
       <c r="G16">
-        <v>0.0006951113347688013</v>
+        <v>0.8195542197772028</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1858852902124255</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.45508892006292</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2535698612259338</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7527276012974511</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.5993829607768859</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.356022400313179</v>
+        <v>3.893363535543358</v>
       </c>
       <c r="C17">
-        <v>2.563957169613616</v>
+        <v>1.183267848882679</v>
       </c>
       <c r="D17">
-        <v>0.07202542800560252</v>
+        <v>0.03313831366596531</v>
       </c>
       <c r="E17">
-        <v>2.393621210379479</v>
+        <v>0.2978562071034219</v>
       </c>
       <c r="F17">
-        <v>4.414620018045866</v>
+        <v>0.9453029220357223</v>
       </c>
       <c r="G17">
-        <v>0.000700996201373643</v>
+        <v>0.8357628582718775</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.146716585825601</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4668725092121662</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2654606609785901</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7525477316190035</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.5822350795225972</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.107887273911615</v>
+        <v>3.915129963436243</v>
       </c>
       <c r="C18">
-        <v>2.486958669987928</v>
+        <v>1.220247289203428</v>
       </c>
       <c r="D18">
-        <v>0.06999712707515471</v>
+        <v>0.0273040673657583</v>
       </c>
       <c r="E18">
-        <v>2.315684977685592</v>
+        <v>0.5395281954749294</v>
       </c>
       <c r="F18">
-        <v>4.285629043112692</v>
+        <v>1.012303651774189</v>
       </c>
       <c r="G18">
-        <v>0.0007043627007559605</v>
+        <v>0.913660861189598</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09489441775370011</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5077075655878218</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2968546801694885</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.753011818176816</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.5495206999623008</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.024520789632618</v>
+        <v>4.039608852011952</v>
       </c>
       <c r="C19">
-        <v>2.46110107830242</v>
+        <v>1.299290827071616</v>
       </c>
       <c r="D19">
-        <v>0.06932514880028862</v>
+        <v>0.0212540576249971</v>
       </c>
       <c r="E19">
-        <v>2.289603132477851</v>
+        <v>0.9886300846620912</v>
       </c>
       <c r="F19">
-        <v>4.242417599886039</v>
+        <v>1.124431281109977</v>
       </c>
       <c r="G19">
-        <v>0.0007054998639371195</v>
+        <v>1.040398813802227</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0535796511083575</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.57095067052785</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3436721619491152</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7532610333760061</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.5103384074881632</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.402265041588464</v>
+        <v>4.452521198952638</v>
       </c>
       <c r="C20">
-        <v>2.578312564996224</v>
+        <v>1.496008314622429</v>
       </c>
       <c r="D20">
-        <v>0.07240808399684795</v>
+        <v>0.01453887515516072</v>
       </c>
       <c r="E20">
-        <v>2.408196456311927</v>
+        <v>2.002046324850937</v>
       </c>
       <c r="F20">
-        <v>4.438720399870306</v>
+        <v>1.361883398271473</v>
       </c>
       <c r="G20">
-        <v>0.000700371758192806</v>
+        <v>1.302589061853297</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.04039179404819748</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6961169586927554</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.432905137906971</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.75250682615318</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.4519071570202726</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.723554924146242</v>
+        <v>5.049889871947187</v>
       </c>
       <c r="C21">
-        <v>2.989332102140054</v>
+        <v>1.701481380874725</v>
       </c>
       <c r="D21">
-        <v>0.08395856287238246</v>
+        <v>0.01472911979648117</v>
       </c>
       <c r="E21">
-        <v>2.831712771079808</v>
+        <v>2.356167725785184</v>
       </c>
       <c r="F21">
-        <v>5.135257270091955</v>
+        <v>1.546717083523134</v>
       </c>
       <c r="G21">
-        <v>0.0006828839377143962</v>
+        <v>1.488001110563602</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0520091777516587</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7766986897537151</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4806799953541656</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7572015786313102</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.420588933759575</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.63578271843801</v>
+        <v>5.431166782031823</v>
       </c>
       <c r="C22">
-        <v>3.274147945324557</v>
+        <v>1.829884483977139</v>
       </c>
       <c r="D22">
-        <v>0.09262991615163685</v>
+        <v>0.01511986360693029</v>
       </c>
       <c r="E22">
-        <v>3.13257933503499</v>
+        <v>2.535973468325352</v>
       </c>
       <c r="F22">
-        <v>5.624745307471187</v>
+        <v>1.660996294313676</v>
       </c>
       <c r="G22">
-        <v>0.0006711614423943093</v>
+        <v>1.601372450748499</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.05962006354214555</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.825638047694639</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5093503258980832</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7668059676701375</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.4032830929394393</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.14372403759216</v>
+        <v>5.22737324988401</v>
       </c>
       <c r="C23">
-        <v>3.120403996103335</v>
+        <v>1.761236941665629</v>
       </c>
       <c r="D23">
-        <v>0.08788155079380289</v>
+        <v>0.01491286671451419</v>
       </c>
       <c r="E23">
-        <v>2.969389340965037</v>
+        <v>2.439794784335092</v>
       </c>
       <c r="F23">
-        <v>5.359864553662931</v>
+        <v>1.599707156712398</v>
       </c>
       <c r="G23">
-        <v>0.0006774523018979739</v>
+        <v>1.540558991675113</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0555016264086694</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7993643099285066</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4939094422575039</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7609966132458652</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.412422048696115</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.381346638110699</v>
+        <v>4.461597053596336</v>
       </c>
       <c r="C24">
-        <v>2.571818500199072</v>
+        <v>1.503604384455798</v>
       </c>
       <c r="D24">
-        <v>0.07223480385280112</v>
+        <v>0.0140954761369656</v>
       </c>
       <c r="E24">
-        <v>2.401601174099241</v>
+        <v>2.07987263602638</v>
       </c>
       <c r="F24">
-        <v>4.427815927461694</v>
+        <v>1.373713307671736</v>
       </c>
       <c r="G24">
-        <v>0.0007006541199592535</v>
+        <v>1.31654104545774</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.04107303523392591</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.70305170992998</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4383214248016856</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7525235666083319</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.4490973968968603</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.631268494383733</v>
+        <v>3.645532275215828</v>
       </c>
       <c r="C25">
-        <v>2.029757027998585</v>
+        <v>1.22957738665923</v>
       </c>
       <c r="D25">
-        <v>0.05880737944612235</v>
+        <v>0.01314654856548003</v>
       </c>
       <c r="E25">
-        <v>1.86104022343963</v>
+        <v>1.698888968402699</v>
       </c>
       <c r="F25">
-        <v>3.530022729715739</v>
+        <v>1.140796147736765</v>
       </c>
       <c r="G25">
-        <v>0.0007250162108062833</v>
+        <v>1.086007131360844</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.027597399422985</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6048880658459552</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3835795052989397</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7646684050206005</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.4925962435988502</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.05040540522981</v>
+        <v>2.872828708309896</v>
       </c>
       <c r="C2">
-        <v>1.030053813861429</v>
+        <v>1.104275824945887</v>
       </c>
       <c r="D2">
-        <v>0.01239424750772677</v>
+        <v>0.01618306589633889</v>
       </c>
       <c r="E2">
-        <v>1.422719343415793</v>
+        <v>1.408016004865615</v>
       </c>
       <c r="F2">
-        <v>0.976581697159304</v>
+        <v>0.895202730181083</v>
       </c>
       <c r="G2">
-        <v>0.923658004750493</v>
+        <v>0.8136494928575502</v>
       </c>
       <c r="H2">
-        <v>0.01909796731565594</v>
+        <v>0.01734871631478474</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5365291007325936</v>
+        <v>0.5475751303628158</v>
       </c>
       <c r="K2">
-        <v>0.3468885243781372</v>
+        <v>0.2985696118846732</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1780515803570601</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07423877046215921</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5275970661237608</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.5708619270700908</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.649415052979975</v>
+        <v>2.506524547015488</v>
       </c>
       <c r="C3">
-        <v>0.8957526736996897</v>
+        <v>0.955946445597732</v>
       </c>
       <c r="D3">
-        <v>0.0118531945023026</v>
+        <v>0.0149262099694738</v>
       </c>
       <c r="E3">
-        <v>1.237421809507055</v>
+        <v>1.226236709963132</v>
       </c>
       <c r="F3">
-        <v>0.8689183220952827</v>
+        <v>0.803176949163813</v>
       </c>
       <c r="G3">
-        <v>0.8172811278174237</v>
+        <v>0.7235204912484079</v>
       </c>
       <c r="H3">
-        <v>0.01405746885500492</v>
+        <v>0.01282885421527491</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4921979361874946</v>
+        <v>0.5096985956790974</v>
       </c>
       <c r="K3">
-        <v>0.323887607428631</v>
+        <v>0.284071150323804</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1799972324153458</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06093534373063036</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5529873291272516</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.5869351582521887</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.403986786412077</v>
+        <v>2.281609606972495</v>
       </c>
       <c r="C4">
-        <v>0.8136017506819258</v>
+        <v>0.8653142872667559</v>
       </c>
       <c r="D4">
-        <v>0.01150636539152217</v>
+        <v>0.01414428001140777</v>
       </c>
       <c r="E4">
-        <v>1.124313782273461</v>
+        <v>1.115126822728385</v>
       </c>
       <c r="F4">
-        <v>0.8043260687335305</v>
+        <v>0.7477224909120253</v>
       </c>
       <c r="G4">
-        <v>0.7534759028979607</v>
+        <v>0.6694168515639092</v>
       </c>
       <c r="H4">
-        <v>0.01126659242271716</v>
+        <v>0.01031790931086317</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.465828557645267</v>
+        <v>0.4867704702270288</v>
       </c>
       <c r="K4">
-        <v>0.3105671279361601</v>
+        <v>0.2756798861404448</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1812356005335509</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05364406971469293</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5693451859623124</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.5975739519973438</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.304119881069937</v>
+        <v>2.189922175946435</v>
       </c>
       <c r="C5">
-        <v>0.7801835583788943</v>
+        <v>0.8284740111744497</v>
       </c>
       <c r="D5">
-        <v>0.01136147351203931</v>
+        <v>0.01382319794629439</v>
       </c>
       <c r="E5">
-        <v>1.078353853252395</v>
+        <v>1.069946118788792</v>
       </c>
       <c r="F5">
-        <v>0.7783468909227906</v>
+        <v>0.7253599439927996</v>
       </c>
       <c r="G5">
-        <v>0.7278147831013086</v>
+        <v>0.6476452639013388</v>
       </c>
       <c r="H5">
-        <v>0.01019860548087385</v>
+        <v>0.009355118113229449</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4552780470735627</v>
+        <v>0.4775005642108425</v>
       </c>
       <c r="K5">
-        <v>0.3053243151848832</v>
+        <v>0.2723779253813809</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1817504316654102</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05088479228776421</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5761965158557274</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.6020968104996598</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.287544560682193</v>
+        <v>2.174694670273425</v>
       </c>
       <c r="C6">
-        <v>0.7746375205582012</v>
+        <v>0.8223618207523486</v>
       </c>
       <c r="D6">
-        <v>0.01133720310646069</v>
+        <v>0.01376973900898903</v>
       </c>
       <c r="E6">
-        <v>1.070729265281642</v>
+        <v>1.062448963333253</v>
       </c>
       <c r="F6">
-        <v>0.7740527006317421</v>
+        <v>0.7216600889477718</v>
       </c>
       <c r="G6">
-        <v>0.7235731910998169</v>
+        <v>0.6440458042646213</v>
       </c>
       <c r="H6">
-        <v>0.01002525246587106</v>
+        <v>0.009198727419613847</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4535374126635361</v>
+        <v>0.4759654869258441</v>
       </c>
       <c r="K6">
-        <v>0.3044644879324849</v>
+        <v>0.2718364286096886</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1818365113439029</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05043917786758811</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.577345152006199</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.6028589793517227</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.402639413693066</v>
+        <v>2.278196964843289</v>
       </c>
       <c r="C7">
-        <v>0.8131508467984929</v>
+        <v>0.8631361995444706</v>
       </c>
       <c r="D7">
-        <v>0.01150442556713216</v>
+        <v>0.01420363298037586</v>
       </c>
       <c r="E7">
-        <v>1.123693458644254</v>
+        <v>1.114442103292717</v>
       </c>
       <c r="F7">
-        <v>0.8039743653657041</v>
+        <v>0.7455355597771103</v>
       </c>
       <c r="G7">
-        <v>0.7531285022187291</v>
+        <v>0.6732642065871346</v>
       </c>
       <c r="H7">
-        <v>0.01125191765653041</v>
+        <v>0.01029700922083261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4656855030191167</v>
+        <v>0.4789591032339331</v>
       </c>
       <c r="K7">
-        <v>0.3104956917747401</v>
+        <v>0.274895787714371</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1809026940798297</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05337995544477891</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5694368447454004</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.5980538663373665</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.911950874471472</v>
+        <v>2.739198139476002</v>
       </c>
       <c r="C8">
-        <v>0.9836703934944353</v>
+        <v>1.047359070182551</v>
       </c>
       <c r="D8">
-        <v>0.01221079823590365</v>
+        <v>0.01597135454841236</v>
       </c>
       <c r="E8">
-        <v>1.358669021067584</v>
+        <v>1.344959000736964</v>
       </c>
       <c r="F8">
-        <v>0.9391216948220773</v>
+        <v>0.856949606971952</v>
       </c>
       <c r="G8">
-        <v>0.8866409804597737</v>
+        <v>0.7961787810987175</v>
       </c>
       <c r="H8">
-        <v>0.01729249493837104</v>
+        <v>0.01570212039341035</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5210557427734273</v>
+        <v>0.5090567368552428</v>
       </c>
       <c r="K8">
-        <v>0.3387811867054396</v>
+        <v>0.2910151895431525</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1776697339721771</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0686366362462465</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5361873633271053</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.5777461819927012</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.919356632936399</v>
+        <v>3.6526746144051</v>
       </c>
       <c r="C9">
-        <v>1.321467378599777</v>
+        <v>1.41911471168612</v>
       </c>
       <c r="D9">
-        <v>0.01347481349515434</v>
+        <v>0.019118365429307</v>
       </c>
       <c r="E9">
-        <v>1.826429271165281</v>
+        <v>1.802666822526874</v>
       </c>
       <c r="F9">
-        <v>1.217994035582777</v>
+        <v>1.091955189930104</v>
       </c>
       <c r="G9">
-        <v>1.162378399140977</v>
+        <v>1.033576073678773</v>
       </c>
       <c r="H9">
-        <v>0.03189206752119578</v>
+        <v>0.02871037335419491</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6372825510621851</v>
+        <v>0.5985884736813887</v>
       </c>
       <c r="K9">
-        <v>0.4014026680240903</v>
+        <v>0.3298791121842086</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1729565367079715</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1067366982290636</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.4774556212741494</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.5427990239573219</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.644602384236748</v>
+        <v>4.293841521804779</v>
       </c>
       <c r="C10">
-        <v>1.559267862485854</v>
+        <v>1.670304458267026</v>
       </c>
       <c r="D10">
-        <v>0.01488300133429377</v>
+        <v>0.02246753909227905</v>
       </c>
       <c r="E10">
-        <v>2.071055963190261</v>
+        <v>2.038966694105994</v>
       </c>
       <c r="F10">
-        <v>1.415288456104776</v>
+        <v>1.245161321713624</v>
       </c>
       <c r="G10">
-        <v>1.354850355370161</v>
+        <v>1.223817291500325</v>
       </c>
       <c r="H10">
-        <v>0.04371189613824633</v>
+        <v>0.03908021656633665</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7182471020760204</v>
+        <v>0.6144410994755987</v>
       </c>
       <c r="K10">
-        <v>0.4451174109960192</v>
+        <v>0.3517572653014298</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1661704356805735</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1355161537430725</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.4430787942068264</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.5296280870366417</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.768455621321152</v>
+        <v>4.38862762102184</v>
       </c>
       <c r="C11">
-        <v>1.548372844705113</v>
+        <v>1.633490073429869</v>
       </c>
       <c r="D11">
-        <v>0.02124191297099287</v>
+        <v>0.03166077278374502</v>
       </c>
       <c r="E11">
-        <v>1.365007090340157</v>
+        <v>1.33618507301594</v>
       </c>
       <c r="F11">
-        <v>1.34625123217981</v>
+        <v>1.159961674189915</v>
       </c>
       <c r="G11">
-        <v>1.261665177481802</v>
+        <v>1.193581302863436</v>
       </c>
       <c r="H11">
-        <v>0.05831549648369005</v>
+        <v>0.05368053921507965</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.667125973554505</v>
+        <v>0.48495482415872</v>
       </c>
       <c r="K11">
-        <v>0.3998816537920931</v>
+        <v>0.3056150356365066</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.143810115098713</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1247296788853198</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.4708715854895544</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.5802928123511961</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.71838516487179</v>
+        <v>4.340395086279898</v>
       </c>
       <c r="C12">
-        <v>1.48989899775404</v>
+        <v>1.557386368960749</v>
       </c>
       <c r="D12">
-        <v>0.02748180589959048</v>
+        <v>0.03967465974547935</v>
       </c>
       <c r="E12">
-        <v>0.8524075632624175</v>
+        <v>0.8277946667418661</v>
       </c>
       <c r="F12">
-        <v>1.247963394897283</v>
+        <v>1.064982593743039</v>
       </c>
       <c r="G12">
-        <v>1.146069058211907</v>
+        <v>1.113274834712001</v>
       </c>
       <c r="H12">
-        <v>0.09300357574948492</v>
+        <v>0.08862287742866215</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6081798971128478</v>
+        <v>0.4057227355612412</v>
       </c>
       <c r="K12">
-        <v>0.3541903874153505</v>
+        <v>0.2666520570271231</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1284097835063172</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1109558297712674</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5080155233490231</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6303164925770375</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.532531653417038</v>
+        <v>4.185628066826268</v>
       </c>
       <c r="C13">
-        <v>1.392231526772321</v>
+        <v>1.451265615721638</v>
       </c>
       <c r="D13">
-        <v>0.03387706571756866</v>
+        <v>0.04654591613369519</v>
       </c>
       <c r="E13">
-        <v>0.4600575227596195</v>
+        <v>0.44021938274809</v>
       </c>
       <c r="F13">
-        <v>1.122065005488665</v>
+        <v>0.9606748007728498</v>
       </c>
       <c r="G13">
-        <v>1.007306319675919</v>
+        <v>0.9819310254929405</v>
       </c>
       <c r="H13">
-        <v>0.1444534996743414</v>
+        <v>0.1405329844654375</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5400872485300567</v>
+        <v>0.3663606643681874</v>
       </c>
       <c r="K13">
-        <v>0.3056092010472682</v>
+        <v>0.2317361475468225</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1170715777356293</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09495147127209691</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5530887076574871</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.6776652438724255</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.342564020703662</v>
+        <v>4.029642207274549</v>
       </c>
       <c r="C14">
-        <v>1.307168367469899</v>
+        <v>1.363898038405523</v>
       </c>
       <c r="D14">
-        <v>0.03849629344447436</v>
+        <v>0.05077829021693248</v>
       </c>
       <c r="E14">
-        <v>0.2590150122778141</v>
+        <v>0.2424559145340623</v>
       </c>
       <c r="F14">
-        <v>1.022878700890018</v>
+        <v>0.883591425024207</v>
       </c>
       <c r="G14">
-        <v>0.9015011164282782</v>
+        <v>0.8707530284877691</v>
       </c>
       <c r="H14">
-        <v>0.1908397438304377</v>
+        <v>0.1873016894858637</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4890748213020686</v>
+        <v>0.3533799254026349</v>
       </c>
       <c r="K14">
-        <v>0.2709636190777189</v>
+        <v>0.2090592039663015</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1107036331489226</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0829968068659177</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5884311989758402</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7090435352426994</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.267921100827607</v>
+        <v>3.968789810624912</v>
       </c>
       <c r="C15">
-        <v>1.278194407633919</v>
+        <v>1.335747744475896</v>
       </c>
       <c r="D15">
-        <v>0.03948141069705002</v>
+        <v>0.05137289917608001</v>
       </c>
       <c r="E15">
-        <v>0.2188666975978144</v>
+        <v>0.2032394310707915</v>
       </c>
       <c r="F15">
-        <v>0.992852791295519</v>
+        <v>0.8620917514121089</v>
       </c>
       <c r="G15">
-        <v>0.8705736886685429</v>
+        <v>0.8344218781759878</v>
       </c>
       <c r="H15">
-        <v>0.2023385564097282</v>
+        <v>0.1989450831903667</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4746476837509732</v>
+        <v>0.3560229370254717</v>
       </c>
       <c r="K15">
-        <v>0.2617580025720869</v>
+        <v>0.2039160344803754</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1097265547469846</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0795359434340277</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5976786042912323</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7150348131470423</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.99918529924679</v>
+        <v>3.748718198121139</v>
       </c>
       <c r="C16">
-        <v>1.199269836473661</v>
+        <v>1.267393136110172</v>
       </c>
       <c r="D16">
-        <v>0.03730071181463046</v>
+        <v>0.04685913520243901</v>
       </c>
       <c r="E16">
-        <v>0.2112969762615506</v>
+        <v>0.1975284754346767</v>
       </c>
       <c r="F16">
-        <v>0.9364433662749008</v>
+        <v>0.8335786917231616</v>
       </c>
       <c r="G16">
-        <v>0.8195542197772028</v>
+        <v>0.7503458530086675</v>
       </c>
       <c r="H16">
-        <v>0.1858852902124255</v>
+        <v>0.1830399584342786</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.45508892006292</v>
+        <v>0.4061087793053701</v>
       </c>
       <c r="K16">
-        <v>0.2535698612259338</v>
+        <v>0.2063621647426004</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1150603376860388</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07355939435398895</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5993829607768859</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.6981386898212492</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.893363535543358</v>
+        <v>3.659007386503845</v>
       </c>
       <c r="C17">
-        <v>1.183267848882679</v>
+        <v>1.258502311645032</v>
       </c>
       <c r="D17">
-        <v>0.03313831366596531</v>
+        <v>0.0415002189512137</v>
       </c>
       <c r="E17">
-        <v>0.2978562071034219</v>
+        <v>0.284005693671908</v>
       </c>
       <c r="F17">
-        <v>0.9453029220357223</v>
+        <v>0.850417859492012</v>
       </c>
       <c r="G17">
-        <v>0.8357628582718775</v>
+        <v>0.7483388525635206</v>
       </c>
       <c r="H17">
-        <v>0.146716585825601</v>
+        <v>0.1440864735865119</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4668725092121662</v>
+        <v>0.4464423506027941</v>
       </c>
       <c r="K17">
-        <v>0.2654606609785901</v>
+        <v>0.2197715362691959</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1227186251403296</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.07482664894393665</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5822350795225972</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.6712382331681823</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.915129963436243</v>
+        <v>3.676072117769195</v>
       </c>
       <c r="C18">
-        <v>1.220247289203428</v>
+        <v>1.304339922737711</v>
       </c>
       <c r="D18">
-        <v>0.0273040673657583</v>
+        <v>0.03494560818381842</v>
       </c>
       <c r="E18">
-        <v>0.5395281954749294</v>
+        <v>0.52380139319785</v>
       </c>
       <c r="F18">
-        <v>1.012303651774189</v>
+        <v>0.9129910569064208</v>
       </c>
       <c r="G18">
-        <v>0.913660861189598</v>
+        <v>0.8092607965385668</v>
       </c>
       <c r="H18">
-        <v>0.09489441775370011</v>
+        <v>0.09221693473260473</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5077075655878218</v>
+        <v>0.4953685666735339</v>
       </c>
       <c r="K18">
-        <v>0.2968546801694885</v>
+        <v>0.2462021100022831</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1341108812016678</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.08308387707497289</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5495206999623008</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.632758933550285</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.039608852011952</v>
+        <v>3.780968844324036</v>
       </c>
       <c r="C19">
-        <v>1.299290827071616</v>
+        <v>1.394750353965321</v>
       </c>
       <c r="D19">
-        <v>0.0212540576249971</v>
+        <v>0.02836169731573435</v>
       </c>
       <c r="E19">
-        <v>0.9886300846620912</v>
+        <v>0.9691648542233509</v>
       </c>
       <c r="F19">
-        <v>1.124431281109977</v>
+        <v>1.01187901790783</v>
       </c>
       <c r="G19">
-        <v>1.040398813802227</v>
+        <v>0.9172994297554027</v>
       </c>
       <c r="H19">
-        <v>0.0535796511083575</v>
+        <v>0.05058199473220526</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.57095067052785</v>
+        <v>0.5541733264506234</v>
       </c>
       <c r="K19">
-        <v>0.3436721619491152</v>
+        <v>0.2831498661742273</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1483253243259455</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09724658308311263</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5103384074881632</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.5896818246031259</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.452521198952638</v>
+        <v>4.132565825109452</v>
       </c>
       <c r="C20">
-        <v>1.496008314622429</v>
+        <v>1.609795640199479</v>
       </c>
       <c r="D20">
-        <v>0.01453887515516072</v>
+        <v>0.02134880103042747</v>
       </c>
       <c r="E20">
-        <v>2.002046324850937</v>
+        <v>1.972573084008573</v>
       </c>
       <c r="F20">
-        <v>1.361883398271473</v>
+        <v>1.210555750165298</v>
       </c>
       <c r="G20">
-        <v>1.302589061853297</v>
+        <v>1.156988828463767</v>
       </c>
       <c r="H20">
-        <v>0.04039179404819748</v>
+        <v>0.03621122365267038</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6961169586927554</v>
+        <v>0.6364915687055941</v>
       </c>
       <c r="K20">
-        <v>0.432905137906971</v>
+        <v>0.348102155053887</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.168736861605506</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1285939173286259</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.4519071570202726</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.5309790258089961</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.049889871947187</v>
+        <v>4.613780210935715</v>
       </c>
       <c r="C21">
-        <v>1.701481380874725</v>
+        <v>1.794371527863291</v>
       </c>
       <c r="D21">
-        <v>0.01472911979648117</v>
+        <v>0.02429596300818204</v>
       </c>
       <c r="E21">
-        <v>2.356167725785184</v>
+        <v>2.3166239335808</v>
       </c>
       <c r="F21">
-        <v>1.546717083523134</v>
+        <v>1.319548129375718</v>
       </c>
       <c r="G21">
-        <v>1.488001110563602</v>
+        <v>1.419980941883352</v>
       </c>
       <c r="H21">
-        <v>0.0520091777516587</v>
+        <v>0.04618834317937104</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7766986897537151</v>
+        <v>0.5286314534399281</v>
       </c>
       <c r="K21">
-        <v>0.4806799953541656</v>
+        <v>0.3616204034695869</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1621941773844959</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1505055223217013</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.420588933759575</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.5252199681008989</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.431166782031823</v>
+        <v>4.915152212337887</v>
       </c>
       <c r="C22">
-        <v>1.829884483977139</v>
+        <v>1.904908277073503</v>
       </c>
       <c r="D22">
-        <v>0.01511986360693029</v>
+        <v>0.02676560935965</v>
       </c>
       <c r="E22">
-        <v>2.535973468325352</v>
+        <v>2.489764234363349</v>
       </c>
       <c r="F22">
-        <v>1.660996294313676</v>
+        <v>1.38126778843106</v>
       </c>
       <c r="G22">
-        <v>1.601372450748499</v>
+        <v>1.595844774578211</v>
       </c>
       <c r="H22">
-        <v>0.05962006354214555</v>
+        <v>0.05265708047225015</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.825638047694639</v>
+        <v>0.4539169077329888</v>
       </c>
       <c r="K22">
-        <v>0.5093503258980832</v>
+        <v>0.3671462683246816</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1567817964632319</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1638984022451737</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.4032830929394393</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.5265855079801725</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.22737324988401</v>
+        <v>4.760336582861157</v>
       </c>
       <c r="C23">
-        <v>1.761236941665629</v>
+        <v>1.850593241040713</v>
       </c>
       <c r="D23">
-        <v>0.01491286671451419</v>
+        <v>0.02522878589041255</v>
       </c>
       <c r="E23">
-        <v>2.439794784335092</v>
+        <v>2.397399071334476</v>
       </c>
       <c r="F23">
-        <v>1.599707156712398</v>
+        <v>1.353278137454566</v>
       </c>
       <c r="G23">
-        <v>1.540558991675113</v>
+        <v>1.489154471537887</v>
       </c>
       <c r="H23">
-        <v>0.0555016264086694</v>
+        <v>0.04919000793144335</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7993643099285066</v>
+        <v>0.5097750084308785</v>
       </c>
       <c r="K23">
-        <v>0.4939094422575039</v>
+        <v>0.3660405481605125</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1602922579339676</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1574938364457878</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.412422048696115</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.5241584760649758</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.461597053596336</v>
+        <v>4.140107292037499</v>
       </c>
       <c r="C24">
-        <v>1.503604384455798</v>
+        <v>1.618777674014439</v>
       </c>
       <c r="D24">
-        <v>0.0140954761369656</v>
+        <v>0.02079209551054717</v>
       </c>
       <c r="E24">
-        <v>2.07987263602638</v>
+        <v>2.049817501463778</v>
       </c>
       <c r="F24">
-        <v>1.373713307671736</v>
+        <v>1.22122145791127</v>
       </c>
       <c r="G24">
-        <v>1.31654104545774</v>
+        <v>1.168301687907103</v>
       </c>
       <c r="H24">
-        <v>0.04107303523392591</v>
+        <v>0.03683706726166625</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.70305170992998</v>
+        <v>0.6439357927438323</v>
       </c>
       <c r="K24">
-        <v>0.4383214248016856</v>
+        <v>0.3524919942170257</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1705017601852958</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1301894193301543</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.4490973968968603</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.5272800345422155</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.645532275215828</v>
+        <v>3.408328996922364</v>
       </c>
       <c r="C25">
-        <v>1.22957738665923</v>
+        <v>1.320417199236829</v>
       </c>
       <c r="D25">
-        <v>0.01314654856548003</v>
+        <v>0.01817913753906453</v>
       </c>
       <c r="E25">
-        <v>1.698888968402699</v>
+        <v>1.67817355243281</v>
       </c>
       <c r="F25">
-        <v>1.140796147736765</v>
+        <v>1.029857967573548</v>
       </c>
       <c r="G25">
-        <v>1.086007131360844</v>
+        <v>0.961853290222777</v>
       </c>
       <c r="H25">
-        <v>0.027597399422985</v>
+        <v>0.02490939571032458</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6048880658459552</v>
+        <v>0.5848397509705592</v>
       </c>
       <c r="K25">
-        <v>0.3835795052989397</v>
+        <v>0.3198438825205514</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1745926151300985</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09597218194157264</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.4925962435988502</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.5508257353739054</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
